--- a/interface/src/data/test_login_data.xlsx
+++ b/interface/src/data/test_login_data.xlsx
@@ -40,20 +40,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>test_login_normal</t>
+  </si>
+  <si>
+    <t>http://172.18.4.206/as/user/login</t>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login_wrong_username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.18.4.206/as/user/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login_wrong_passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login_null_username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login_null_passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "userName":"eafaefaef",
+     "password":"111111"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "userName":"root",
+     "password":"11111111111"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "userName":"",
+     "password":"111111"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "userName":"root",
+     "password":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少用户名参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺少密码参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login_none_username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login_none_passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>{
+     "userName":"root",
+     "password":"111111"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "password":"111111"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+     "userName":"root"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 11015,
+    "msg": "username or password error"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 11013,
+    "msg": "user name can not be empty"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 11013,
+    "msg": "password can not be empty"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 11000,
+    "msg": "Required String parameter 'userName' is not present"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": 11013,
+    "msg": "password can not be empty"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>expect_res</t>
-  </si>
-  <si>
-    <t>test_login_normal</t>
-  </si>
-  <si>
-    <t>http://172.18.4.206/as/user/login</t>
-  </si>
-  <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,178 +252,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_login_wrong_username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://172.18.4.206/as/user/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login_wrong_passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login_null_username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login_null_passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-     "userName":"eafaefaef",
-     "password":"111111"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-     "userName":"root",
-     "password":"11111111111"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-     "userName":"",
-     "password":"111111"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-     "userName":"root",
-     "password":""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少用户名参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺少密码参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login_none_username</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login_none_passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>{
-     "userName":"root",
-     "password":"111111"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-     "password":"111111"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-     "userName":"root"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": 11015,
-    "msg": "username or password error"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": 11015,
-    "msg": "username or password error"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": 11013,
-    "msg": "user name can not be empty"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": 11013,
-    "msg": "password can not be empty"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": 11000,
-    "msg": "Required String parameter 'userName' is not present"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": 11013,
-    "msg": "password can not be empty"
-}</t>
+    <t>{"code":11015,"msg":"username or password error"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,9 +641,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -682,189 +680,189 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="364.5" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
